--- a/Testdata/TC_66.xlsx
+++ b/Testdata/TC_66.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>DRoAAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSu0tatiyMN+BNClFeBJKqrLwUw90RudVyh9mdFcW3FGiRIk1RFIVTpFf0KUWBukabAKndy78Eluw+9Rd65rKzF1Jx6RqCtXNuc+bMuY7QO9eLwLgiUezT8FHF3rMqBgld6vnh7FElYRdV+37lHQd1rl0SnOAILwgDYgO4wvjwOvYfVeaMLQ9Nc7Va7a3qezSamTXLss3H/d7YnZMFrvphzHDokorm8t7MVXFQy1v0CcMeZlhyPqp0x929FvHdNsD6OMQzEu01k9gPSRx3QuYzn8ScMyKYkVa7/x15MKe2d3/PRuYGPKNsJn7gSboCpYQrOtiWTPwFcWqWfVC1Dqp1e2Lbh/X9wzpwPai9lzJqQtTDMRuT6Mp3BWDM8GIp2K2Dum3b9f067LaVCGRlBnDQMPBG5MqPidciQRDvZBFTXWDDZXDq3YxpITPHqwS9vQrHEV7OJz4LyG5qjPpNYxEqXTIhDjqiEXHBfm+l0oCshpEy62TZA+xk7kds3cbrnWWdxiQaLrmRdmN1UJuGrBGQiJ0u4a6JB64ACIdFCUHmHciMqe3HLnz7YUI85wIHcZ6pgERnNLqMl9glA4hjk8tYhQHFHjgc82Pmu3EmYAODTiK6BJGwe5MG3hGITam3YLTsbghG5hs3Kb0siy8ikbhXccNwqwus5W/A0XhOV8MwWI+TaexG/pR47WZKvRWHeEgq7lYSM7oALTIQkrAcZA3/IATLYNQmrr/AwUkAZoydOkgpAFAjYfTCZy0aJItQ27MERWdwogm51ifUazSE6w251WnYDUtStuKKHCO6Sj1nEy6MkAM3Yjf1sk1EmbgNsPT6NjHiRvgpj/wAKkT+LnLQoleM54SwrS4hMYgnwyNec5zmmu+JzAyCwDXBvwHq2A8fWFXLhp+JZR2KH9hZo1En9MSHZQmiIl2KRINkMZxCDF+JMzk24EogBKcImgEOLwF65rP5oJFqvwWD5JnvpN/EIYjWZYDXAqztkoehbugGiUdkEuiGF8IpuW6K+k482gD1IK4dhMP1ZL3kycC8g6JNLnASQH1ikEZmWYYogVEjvizT5EHoNArSO3Z49Y+h/LveYs+FBMlL3J5LFxxgQtU9GyMzT8+zvEs64ayHw1kCeVTbsQzXHsYzwCTCYcyPo9Nmydm2E6H0XmQ6d+RlDRPhTvKyKGCRWaJDE7JY0ggHfTCMf5SEomSqmgAW7mM2VysI3oC4qZHNjFVzFTVLFX8TmQhDeQye4/NhmIMKKn4Y2WnkiDIg4ufsUw+KPQ78aVRws604uLKsBKYOx4+3YzlMbwHaTcgw3yZr3oNkCwXnXuvYKUKsUAtUcsajewe1fateg+zN10gceURwYHSgEWXE6IZXJGYLYDs0RiT2PfjycXBovEumxIewFzZSgbczd54PHUXk/QQa6rVQpQH6FiFFAsipMz/EwSahxmQMzjnBUbDOEcqj9qgLdLc/+tfNr5+9fP7Z7UdPXn/xg//8/Zcv//HTm6c/hI/bv/z15uNfyGNKYjTB04AIhSbNgwOrfg88TYOQShBQ5b3EZQJ2fi6qvl4j1b6KRavTbR33miKjaGDKzjuKhEdDD69pki3H8hBiI3GlZuoJksSZpBlKrQvYNuGlXoYh71SvSJE6j7+LUdri1YvPXr34053cymD54vNwv2rX3lh8oOe3N+h08eETgGzw0vniXtXar9ZqOeISDRrBmAT9nLZT13PqtvXQqtUtW2dzTzvyNqIySkma4JlZ4pOgFk1CFq21C+TXKVI4/gRCRKNlKOQWykW/+PHrPz8pUCnrKkhRCihHk0h6k5kuhOjBaGKMh6ejVseYdMbcTzJcjk4K/xpitbuOp4JThWGCg2/BcMxHY6MCXV/FoBcGwe7cWEMk5uKw4GzboHKjtxRZ1vI4oslS3kiOIYNuodTZZCvHllwjcMKeG0knQ20hl7re/O3zbQzqIMrNTkOf6SkvD0MFjATl8CpqP/3nyy8/fPn8+e2zn918+f2CBLWPHn7AzyGa8kvt9pDyVL0pQdDZWBjz0vpurr4oIG8dT6gfstix74uuUa0QsNpcmviNugsoeUKwsBfASxD0Lo4710wFtjNAZhEAei4xVFua9dcaIHN4Ztd//+a3t7/6/PaTZ68//OPNR3+4+fiTVy9+9/rp72XU3T55dvuTpyrLlwuB0IV37bINNMQQ6Bo8Gg1eu42vPvi5EVJmQNNhJCIjffXBpzlhXFHRnmSSoanTihRV2CDNM3M+I6eK1qHAp1lkA9DiJayuKVQRo0vfzTZ5r8pF8bgTiG90J9UkJgaFfuqbcJIiccb8v/IpFllSTx5YNbumsFIbfoQpjnOmPw7oFJqMFCGGrBJJgevrGTJasd9xb9hs9DISqcQw8mAms/ikyD9Q2lTyktKN05UeLTIIYKHxc5OAz8UbZJsoLTmXxkw1YF40PJ7+tg9nBQqY0aNINkSherEcJ0toh5kaYu/Gi8eZXAM8kL1qviXO1t12EQ/rHBYKYRHNAQIvUpNCyTTVjfksK9vZATdNtgRc4UEHzKEeJWWndQV9ZWTyvNOJIhptTT4ZJiXrQycNGcXMLK5pxJ3KrtvL7ioFpAlPf8jZT52QtklA2G4vdmbG3adXb80Ld78razceBp4y5m6jhzZLJiD/bMkd5f99tZTO1ogiaKz4I8fOz4zp6DqCiXdHbeRRBCMfAWF39Q545Ecxe8wzgfqSkHMNOZcd6mPH3pd96GMJEBTyQx1SSTcLaqahy+TjMQ16/sLfcSy00vguCgFbLpeyhevu5im8tAzINTSYOQmQFKffg7LBR57dpEmHhVyq+flrTezP5mxXxR5MMfHI1Kq6U1Kr3vOsg+pDQupV24b/sVurWdY+f+pRwiFz+GS14yZmemHZH3Wc/wJQPEaHDRoAAA==</t>
+          <t>5RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpQvsjHLQDdvhEqWIcn1Oi/FiBxZU1OkQg5t6y0FWqRIUxRFsSnSK/qUokC3izYB0t1e/iVYe7dP/YWeufAqOVu6hgFzzm3OnDnXMXrnZulqVyQIqe89qtRrRkUjnu071Lt4VInYvFrfq7xjod6NTdwTHOAlYUCsAZcXHt6E9FFlwdjqUNevr69r142aH1zopmHU9SfDwcRekCWuUi9k2LNJJeFy3s5VsVDHWQ4Jww5mWHI+qvQn/VqHULsLsCH28AUJau0opB4Jw57HKKMk5JwBwYx0usPvyINZZm2vVkf6BjylbEfUdSRdjlLCFR1sS6Z0SSzTMI2q0ayaO1OjeVjfPzT3a82dvfdixoQQDXDIJiS4orYATBhergS70TR3jGZ939xH+lYikJUawEIj1xmTKxoSp0NcNyxlEV1dYMtmcOpyxjSQnuFVgh6uwuMArxZTylxSlv3ID4gNhnrQ3sfkehQo+01XA8BOFzRg6y5el5Z1GpJgtOLWKMdqoa7vsZZLAna6gkslDtw5ICwWRATp9yBTpi4NbfimXkQca47dMMuUQ6IzP7gMV9gmxxCwOpdx7bk+dsCzGA0ZtcNUwAYGnQT+CkTC7m3fdY5AbEy9BZPI7ntgZL5x2/cvi+LzSCS8QPgD3OoSJ/I34Giy8K9HnrueRLPQDuiMON12TL0Vh3jsKe5OFDJ/CVqkICRhGcgafiDWimDUJTZdYvfEBTOGVgOk5ACoFTF/TlnHd6Oll9izAEVncKIpuUlOmKzRCK7X41b3vb5XkLIVl+cY+9ex52zChREy4FZox162iSgSdwEWX98mRtwIP+URdaEUZO8iA817xWRBCNvqEhKDeNY74sXFaq/5nkhPIQhcE/wboFb9YB/Sbh1+p4ZxKH5h5wSNep4jPgxDEOXpYiQ6jpajGcTwlTiTVQdcAYTgFG7bxd4lQM8oWxy3Yu23YJA88730mzgE0bpy8VqAE7tkYajv2W7kEJkE+t5cOCXXTVHfi0cboAHENc8BZI4jF+oMgyxxkSaAAhi1wssiTRaETgM3vkKLV/EQyrjtLGs25D9eqmq2v+QAHarn2QTpWXqexG3S8y4G2LuIIE0mZirCEwfiAT4NsBfy8yRZseBL24lQbHaZrS15F6NIeIu8Cx+wSC/QoSlZrvwAu0MwDD2KPFH6VMoHSw4xW6gVxKZL7IyVY9aEK69ZrPjbyESUyWPwFJ6NsgxUUPHDyI4hQ5QCET/n0HegaGOXzoKcF23FwZWlFS72J368ktUuvgVoGyGBfJuseS+RLhR8ul5BYMcIsUIdUMmajHea5q7RMCE58zUSRx4T7Go9aCgZ0freFQnZEtgOtTEJqQNfFLuH2rtkRihEtbCRiqvS3Fk+dBSQ9yNojNdClRbom4fkCSBlXlAPu5uECSZlsM4JDtx1hlAedeDbQHf3o3/d/vr5qxef3X309M0XP/jP33/56h8/vX32Q/i4+8tfbz/+hTymJEZTPHOJUGjabjaNxg54WgJC3Li6KO9OZDMBOz8XRT1ZI9WGikWn1+88HrTBozLAmJ03DBGPhgFe+1G6nMhDiI3EleqxJ0gSayrkpesctkt4JZdhyDvOK5KnzuLvY5S2eP3ys9cv/3QvtzJYtrYc7Fbr5ltri2nU6xt0SW3hnbzs39ScUN+pGrtV08wQF2jQGMYdaNcSO/Udq1E3DgyzYdRj/QEWO/I2oiJKSZriC73AJ0EdP/JYsE5cILuOkcLxpxAiCVqGQmahXPSLH7/589MclbKuguSlgHJ+FEhv0uOFEH08nmqT0em409OmvQn3kxSXoZPCv4ZY7Z7EU86pPC/C7rdgyOUjrlaBpq6i+XONYHuhrSESM3GYc7ZtULnRA0UWtXwc+NFK3kiGIYVuoUyyyVaOLblG4IQ9N5JOitpCLnW9/dvn2xjUQZSbnXqUWeNhW1t6iV8KGMphJCiDV1H76T9fffnhqxcv7p7/7PbL7+ckqH2S2Qb8HKIpu0zcHlKeqjcFCDqbCGNeGt/N1BcF5J3hiU89Flr1PdEUqhUC1jqXJv6i/hJKnhAs7AXwAgS9i8PeDVOBbR0jPQ8APVcYqq2fts8JQObw1K7//s1v7371+d0nz998+Mfbj/5w+/Enr1/+7s2z38uou3v6/O4nz1SWLxYCoQtvymUfqIkZz9Z4NGq8dmtfffBzzfOZBk2HFomM9NUHn2aEcUVFe5JKhqYuUSSvwgZplpnzaRlVEh1yfAmLbAA6vIQ1EgpVxPwVtdNN3qtyUTzuBOIb/Wk1ConmQz/1TThJnjhl/l/5FIssqSf7hlk3FVZqw48ww2HG9I9dfwZNRowQM1SBJMf19Qwprdjv8WDUbg1SEqnEKHBg5DL4IMg/UD+M28pkWkghgIVmz45cPupukG2iUPyVSV26mhnnLYenvO3zVo4Cxu4gkE2Qp14bJ9EKWmCm5tL78eK9JdP0Hsv+NNsGp+t+N4+HdQYLxS+P5gCBF+lIoWRq6od8PJUt7DE3TboEXO6NBsyhHhRld3UFvWSg81zTCwI/2JpwUkxMNoTuGbKInlo8odH5lrLTdtK7igFxkks+eK+e5EK/S1zCSr+2xdxD/+rBvHD3ZVn74ch1lDHLjRuJWVIB2SdH7ihllWkFAbRN/IWi9BvhgHqX/XKnt+bzXaO5s2c2zD2D4L3Z3MGO0zQM7Ow27P05NI5CKJ8/uQg+ufDZrdwm0Czm2dNJewyzd0lp0sCCkQ+jYCkRkCqxJ2t0RIOQPeEpSn1JyHkCOZet8xOrvisb5CcSICjkh3qHVpvpOa3j/MLk67TvDuiSlpxXjTgJ5YWAG6xWsrcse6FQ847JDXS+GQmQrWffg3rGZ7Fy0mRUQZJP+GNZk2hWWpweM58AnjvWw7h7DvRlD+cWL73U/T8UEJ3XQ0X0vZBeLFjZezUPDhpkj5hVc27b1R1YVKEaz6oOnh/UDWPecHZN/kKnhEN1oOS65Ca8ptAQ5oryfHrhn3XWfwGf/e1s5RsAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -434,4 +434,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>16</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E41C6BA-F410-4FBF-B98F-2DD9F6BB987F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_66.xlsx
+++ b/Testdata/TC_66.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>5RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpQvsjHLQDdvhEqWIcn1Oi/FiBxZU1OkQg5t6y0FWqRIUxRFsSnSK/qUokC3izYB0t1e/iVYe7dP/YWeufAqOVu6hgFzzm3OnDnXMXrnZulqVyQIqe89qtRrRkUjnu071Lt4VInYvFrfq7xjod6NTdwTHOAlYUCsAZcXHt6E9FFlwdjqUNevr69r142aH1zopmHU9SfDwcRekCWuUi9k2LNJJeFy3s5VsVDHWQ4Jww5mWHI+qvQn/VqHULsLsCH28AUJau0opB4Jw57HKKMk5JwBwYx0usPvyINZZm2vVkf6BjylbEfUdSRdjlLCFR1sS6Z0SSzTMI2q0ayaO1OjeVjfPzT3a82dvfdixoQQDXDIJiS4orYATBhergS70TR3jGZ939xH+lYikJUawEIj1xmTKxoSp0NcNyxlEV1dYMtmcOpyxjSQnuFVgh6uwuMArxZTylxSlv3ID4gNhnrQ3sfkehQo+01XA8BOFzRg6y5el5Z1GpJgtOLWKMdqoa7vsZZLAna6gkslDtw5ICwWRATp9yBTpi4NbfimXkQca47dMMuUQ6IzP7gMV9gmxxCwOpdx7bk+dsCzGA0ZtcNUwAYGnQT+CkTC7m3fdY5AbEy9BZPI7ntgZL5x2/cvi+LzSCS8QPgD3OoSJ/I34Giy8K9HnrueRLPQDuiMON12TL0Vh3jsKe5OFDJ/CVqkICRhGcgafiDWimDUJTZdYvfEBTOGVgOk5ACoFTF/TlnHd6Oll9izAEVncKIpuUlOmKzRCK7X41b3vb5XkLIVl+cY+9ex52zChREy4FZox162iSgSdwEWX98mRtwIP+URdaEUZO8iA817xWRBCNvqEhKDeNY74sXFaq/5nkhPIQhcE/wboFb9YB/Sbh1+p4ZxKH5h5wSNep4jPgxDEOXpYiQ6jpajGcTwlTiTVQdcAYTgFG7bxd4lQM8oWxy3Yu23YJA88730mzgE0bpy8VqAE7tkYajv2W7kEJkE+t5cOCXXTVHfi0cboAHENc8BZI4jF+oMgyxxkSaAAhi1wssiTRaETgM3vkKLV/EQyrjtLGs25D9eqmq2v+QAHarn2QTpWXqexG3S8y4G2LuIIE0mZirCEwfiAT4NsBfy8yRZseBL24lQbHaZrS15F6NIeIu8Cx+wSC/QoSlZrvwAu0MwDD2KPFH6VMoHSw4xW6gVxKZL7IyVY9aEK69ZrPjbyESUyWPwFJ6NsgxUUPHDyI4hQ5QCET/n0HegaGOXzoKcF23FwZWlFS72J368ktUuvgVoGyGBfJuseS+RLhR8ul5BYMcIsUIdUMmajHea5q7RMCE58zUSRx4T7Go9aCgZ0freFQnZEtgOtTEJqQNfFLuH2rtkRihEtbCRiqvS3Fk+dBSQ9yNojNdClRbom4fkCSBlXlAPu5uECSZlsM4JDtx1hlAedeDbQHf3o3/d/vr5qxef3X309M0XP/jP33/56h8/vX32Q/i4+8tfbz/+hTymJEZTPHOJUGjabjaNxg54WgJC3Li6KO9OZDMBOz8XRT1ZI9WGikWn1+88HrTBozLAmJ03DBGPhgFe+1G6nMhDiI3EleqxJ0gSayrkpesctkt4JZdhyDvOK5KnzuLvY5S2eP3ys9cv/3QvtzJYtrYc7Fbr5ltri2nU6xt0SW3hnbzs39ScUN+pGrtV08wQF2jQGMYdaNcSO/Udq1E3DgyzYdRj/QEWO/I2oiJKSZriC73AJ0EdP/JYsE5cILuOkcLxpxAiCVqGQmahXPSLH7/589MclbKuguSlgHJ+FEhv0uOFEH08nmqT0em409OmvQn3kxSXoZPCv4ZY7Z7EU86pPC/C7rdgyOUjrlaBpq6i+XONYHuhrSESM3GYc7ZtULnRA0UWtXwc+NFK3kiGIYVuoUyyyVaOLblG4IQ9N5JOitpCLnW9/dvn2xjUQZSbnXqUWeNhW1t6iV8KGMphJCiDV1H76T9fffnhqxcv7p7/7PbL7+ckqH2S2Qb8HKIpu0zcHlKeqjcFCDqbCGNeGt/N1BcF5J3hiU89Flr1PdEUqhUC1jqXJv6i/hJKnhAs7AXwAgS9i8PeDVOBbR0jPQ8APVcYqq2fts8JQObw1K7//s1v7371+d0nz998+Mfbj/5w+/Enr1/+7s2z38uou3v6/O4nz1SWLxYCoQtvymUfqIkZz9Z4NGq8dmtfffBzzfOZBk2HFomM9NUHn2aEcUVFe5JKhqYuUSSvwgZplpnzaRlVEh1yfAmLbAA6vIQ1EgpVxPwVtdNN3qtyUTzuBOIb/Wk1ConmQz/1TThJnjhl/l/5FIssqSf7hlk3FVZqw48ww2HG9I9dfwZNRowQM1SBJMf19Qwprdjv8WDUbg1SEqnEKHBg5DL4IMg/UD+M28pkWkghgIVmz45cPupukG2iUPyVSV26mhnnLYenvO3zVo4Cxu4gkE2Qp14bJ9EKWmCm5tL78eK9JdP0Hsv+NNsGp+t+N4+HdQYLxS+P5gCBF+lIoWRq6od8PJUt7DE3TboEXO6NBsyhHhRld3UFvWSg81zTCwI/2JpwUkxMNoTuGbKInlo8odH5lrLTdtK7igFxkks+eK+e5EK/S1zCSr+2xdxD/+rBvHD3ZVn74ch1lDHLjRuJWVIB2SdH7ihllWkFAbRN/IWi9BvhgHqX/XKnt+bzXaO5s2c2zD2D4L3Z3MGO0zQM7Ow27P05NI5CKJ8/uQg+ufDZrdwm0Czm2dNJewyzd0lp0sCCkQ+jYCkRkCqxJ2t0RIOQPeEpSn1JyHkCOZet8xOrvisb5CcSICjkh3qHVpvpOa3j/MLk67TvDuiSlpxXjTgJ5YWAG6xWsrcse6FQ847JDXS+GQmQrWffg3rGZ7Fy0mRUQZJP+GNZk2hWWpweM58AnjvWw7h7DvRlD+cWL73U/T8UEJ3XQ0X0vZBeLFjZezUPDhpkj5hVc27b1R1YVKEaz6oOnh/UDWPecHZN/kKnhEN1oOS65Ca8ptAQ5oryfHrhn3XWfwGf/e1s5RsAAA==</t>
+          <t>DRoAAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoFSu0tatiyMN+BNClFeBJKqrLwUw90RudVyh9mdFcW3FGiRIk1RFIVTpFf0KUWBukabAKndy78Eluw+9Rd65rKzF1Jx6RqCtXNuc+bMuY7QO9eLwLgiUezT8FHF3rMqBgld6vnh7FElYRdV+37lHQd1rl0SnOAILwgDYgO4wvjwOvYfVeaMLQ9Nc7Va7a3qezSamTXLss3H/d7YnZMFrvphzHDokorm8t7MVXFQy1v0CcMeZlhyPqp0x929FvHdNsD6OMQzEu01k9gPSRx3QuYzn8ScMyKYkVa7/x15MKe2d3/PRuYGPKNsJn7gSboCpYQrOtiWTPwFcWqWfVC1Dqp1e2Lbh/X9wzpwPai9lzJqQtTDMRuT6Mp3BWDM8GIp2K2Dum3b9f067LaVCGRlBnDQMPBG5MqPidciQRDvZBFTXWDDZXDq3YxpITPHqwS9vQrHEV7OJz4LyG5qjPpNYxEqXTIhDjqiEXHBfm+l0oCshpEy62TZA+xk7kds3cbrnWWdxiQaLrmRdmN1UJuGrBGQiJ0u4a6JB64ACIdFCUHmHciMqe3HLnz7YUI85wIHcZ6pgERnNLqMl9glA4hjk8tYhQHFHjgc82Pmu3EmYAODTiK6BJGwe5MG3hGITam3YLTsbghG5hs3Kb0siy8ikbhXccNwqwus5W/A0XhOV8MwWI+TaexG/pR47WZKvRWHeEgq7lYSM7oALTIQkrAcZA3/IATLYNQmrr/AwUkAZoydOkgpAFAjYfTCZy0aJItQ27MERWdwogm51ifUazSE6w251WnYDUtStuKKHCO6Sj1nEy6MkAM3Yjf1sk1EmbgNsPT6NjHiRvgpj/wAKkT+LnLQoleM54SwrS4hMYgnwyNec5zmmu+JzAyCwDXBvwHq2A8fWFXLhp+JZR2KH9hZo1En9MSHZQmiIl2KRINkMZxCDF+JMzk24EogBKcImgEOLwF65rP5oJFqvwWD5JnvpN/EIYjWZYDXAqztkoehbugGiUdkEuiGF8IpuW6K+k482gD1IK4dhMP1ZL3kycC8g6JNLnASQH1ikEZmWYYogVEjvizT5EHoNArSO3Z49Y+h/LveYs+FBMlL3J5LFxxgQtU9GyMzT8+zvEs64ayHw1kCeVTbsQzXHsYzwCTCYcyPo9Nmydm2E6H0XmQ6d+RlDRPhTvKyKGCRWaJDE7JY0ggHfTCMf5SEomSqmgAW7mM2VysI3oC4qZHNjFVzFTVLFX8TmQhDeQye4/NhmIMKKn4Y2WnkiDIg4ufsUw+KPQ78aVRws604uLKsBKYOx4+3YzlMbwHaTcgw3yZr3oNkCwXnXuvYKUKsUAtUcsajewe1fateg+zN10gceURwYHSgEWXE6IZXJGYLYDs0RiT2PfjycXBovEumxIewFzZSgbczd54PHUXk/QQa6rVQpQH6FiFFAsipMz/EwSahxmQMzjnBUbDOEcqj9qgLdLc/+tfNr5+9fP7Z7UdPXn/xg//8/Zcv//HTm6c/hI/bv/z15uNfyGNKYjTB04AIhSbNgwOrfg88TYOQShBQ5b3EZQJ2fi6qvl4j1b6KRavTbR33miKjaGDKzjuKhEdDD69pki3H8hBiI3GlZuoJksSZpBlKrQvYNuGlXoYh71SvSJE6j7+LUdri1YvPXr34053cymD54vNwv2rX3lh8oOe3N+h08eETgGzw0vniXtXar9ZqOeISDRrBmAT9nLZT13PqtvXQqtUtW2dzTzvyNqIySkma4JlZ4pOgFk1CFq21C+TXKVI4/gRCRKNlKOQWykW/+PHrPz8pUCnrKkhRCihHk0h6k5kuhOjBaGKMh6ejVseYdMbcTzJcjk4K/xpitbuOp4JThWGCg2/BcMxHY6MCXV/FoBcGwe7cWEMk5uKw4GzboHKjtxRZ1vI4oslS3kiOIYNuodTZZCvHllwjcMKeG0knQ20hl7re/O3zbQzqIMrNTkOf6SkvD0MFjATl8CpqP/3nyy8/fPn8+e2zn918+f2CBLWPHn7AzyGa8kvt9pDyVL0pQdDZWBjz0vpurr4oIG8dT6gfstix74uuUa0QsNpcmviNugsoeUKwsBfASxD0Lo4710wFtjNAZhEAei4xVFua9dcaIHN4Ztd//+a3t7/6/PaTZ68//OPNR3+4+fiTVy9+9/rp72XU3T55dvuTpyrLlwuB0IV37bINNMQQ6Bo8Gg1eu42vPvi5EVJmQNNhJCIjffXBpzlhXFHRnmSSoanTihRV2CDNM3M+I6eK1qHAp1lkA9DiJayuKVQRo0vfzTZ5r8pF8bgTiG90J9UkJgaFfuqbcJIiccb8v/IpFllSTx5YNbumsFIbfoQpjnOmPw7oFJqMFCGGrBJJgevrGTJasd9xb9hs9DISqcQw8mAms/ikyD9Q2lTyktKN05UeLTIIYKHxc5OAz8UbZJsoLTmXxkw1YF40PJ7+tg9nBQqY0aNINkSherEcJ0toh5kaYu/Gi8eZXAM8kL1qviXO1t12EQ/rHBYKYRHNAQIvUpNCyTTVjfksK9vZATdNtgRc4UEHzKEeJWWndQV9ZWTyvNOJIhptTT4ZJiXrQycNGcXMLK5pxJ3KrtvL7ioFpAlPf8jZT52QtklA2G4vdmbG3adXb80Ld78razceBp4y5m6jhzZLJiD/bMkd5f99tZTO1ogiaKz4I8fOz4zp6DqCiXdHbeRRBCMfAWF39Q545Ecxe8wzgfqSkHMNOZcd6mPH3pd96GMJEBTyQx1SSTcLaqahy+TjMQ16/sLfcSy00vguCgFbLpeyhevu5im8tAzINTSYOQmQFKffg7LBR57dpEmHhVyq+flrTezP5mxXxR5MMfHI1Kq6U1Kr3vOsg+pDQupV24b/sVurWdY+f+pRwiFz+GS14yZmemHZH3Wc/wJQPEaHDRoAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -434,37 +434,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>16</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E41C6BA-F410-4FBF-B98F-2DD9F6BB987F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>